--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3617491.676452523</v>
+        <v>3615604.094936121</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8166987.288845575</v>
+        <v>8166987.288845576</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>296.8174529500245</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>213.6743229269902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>137.493062346511</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621472</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174137</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896923</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>161.1706059301396</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462297986</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051981</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139872</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500664</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,10 +2530,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151929</v>
+        <v>235.5975646709559</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1796758467004</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>34.99714353999861</v>
+        <v>1.599126004632481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463127</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898711</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857163</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692845</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329052</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.7444956504007</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>764.7444956504007</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>764.7444956504007</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7444956504007</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>353.7585908607932</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>512.2963347852319</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362311</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>571.9594663958194</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>213.6937677890689</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>213.6937677890689</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>206.7482670398654</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>192.8248629784563</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>192.8248629784563</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362311</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>211.647186529604</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036446</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
-        <v>241.980548233671</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X13" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1336.117678709276</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V16" t="n">
-        <v>1336.117678709276</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="W16" t="n">
-        <v>1046.700508672316</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,37 +5510,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011509</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583033</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>192.0445326839209</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,34 +5765,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944153</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944153</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820796</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996865</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262962</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011504</v>
+        <v>726.158403773316</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>726.158403773316</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363554</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383381</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,13 +6239,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6254,19 +6254,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384081</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384081</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384081</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652463</v>
+        <v>604.5641438163784</v>
       </c>
       <c r="C31" t="n">
-        <v>617.2764257187101</v>
+        <v>491.3888261698423</v>
       </c>
       <c r="D31" t="n">
-        <v>522.9206515877452</v>
+        <v>397.0330520388774</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7684232867227</v>
+        <v>397.0330520388774</v>
       </c>
       <c r="F31" t="n">
-        <v>339.6393410701831</v>
+        <v>305.9039698223378</v>
       </c>
       <c r="G31" t="n">
-        <v>227.2248846713745</v>
+        <v>193.4895134235293</v>
       </c>
       <c r="H31" t="n">
-        <v>132.5677415006885</v>
+        <v>98.8323702528439</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981893</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652472</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652472</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6944,19 +6944,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,22 +7196,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7239,31 +7239,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018223</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962217</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
         <v>2112.811595180915</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,16 +7336,16 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184157</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942117</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147079</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211718</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011332</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265284</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.64488248398</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970602</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208058</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670161</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928337</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>23.93099889297662</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>125.0667464684378</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136111</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517045</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338574</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179246</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338433</v>
+        <v>50.63978772762141</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.6113041698713</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>14.74113413690282</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>20.21884529571634</v>
+        <v>53.61686283108239</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712984.4473832542</v>
+        <v>712984.4473832543</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278763</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="J2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214851</v>
+        <v>732279.847221485</v>
       </c>
       <c r="L2" t="n">
         <v>738937.5928778562</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>738937.5928778556</v>
+      </c>
+      <c r="O2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="P2" t="n">
         <v>738937.5928778555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>738937.5928778563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>738937.5928778563</v>
-      </c>
-      <c r="P2" t="n">
-        <v>738937.5928778556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687074</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687067</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687066</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106722</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819126</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-99522.23218662359</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.6470279208</v>
+        <v>490445.6470279212</v>
       </c>
       <c r="D6" t="n">
         <v>490445.647027921</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539273</v>
+        <v>64432.87838942003</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922885</v>
+        <v>589592.9148663168</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922885</v>
+        <v>589592.9148663161</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922883</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922886</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996957</v>
+        <v>413169.6956737232</v>
       </c>
       <c r="K6" t="n">
-        <v>551149.8032873495</v>
+        <v>551131.3095494149</v>
       </c>
       <c r="L6" t="n">
         <v>586286.1854287727</v>
       </c>
       <c r="M6" t="n">
-        <v>461828.0769958018</v>
+        <v>461828.0769958028</v>
       </c>
       <c r="N6" t="n">
-        <v>596629.0922296396</v>
+        <v>596629.0922296391</v>
       </c>
       <c r="O6" t="n">
-        <v>596629.0922296401</v>
+        <v>596629.0922296388</v>
       </c>
       <c r="P6" t="n">
-        <v>552466.4869267934</v>
+        <v>552466.4869267932</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.932715477266991e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26917,28 +26917,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9667170707705</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>38.46332039683776</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.4382538983503</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.01048066168084</v>
+        <v>118.6827785106055</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.302798671987058e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,43 +34521,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076452</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768301</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879391</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782261</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.363702241108</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
